--- a/DataDrivenFramework/src/test/resources/excel/testData.xlsx
+++ b/DataDrivenFramework/src/test/resources/excel/testData.xlsx
@@ -21,7 +21,7 @@
     <t>seachtext</t>
   </si>
   <si>
-    <t>Abhinav</t>
+    <t>TCS</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
